--- a/static/CV_Builder/template.xlsx
+++ b/static/CV_Builder/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/503a47e0f8a7e499/Job_Hunt/CV_Builder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/503a47e0f8a7e499/Job_Hunt/mywebsite/eladozcohen.com/static/CV_Builder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="13_ncr:1_{B5AE0704-2B6C-410F-90F0-5127CA8CD85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13872CCF-E467-40B4-A741-35CE130F9544}"/>
+  <xr:revisionPtr revIDLastSave="205" documentId="13_ncr:1_{B5AE0704-2B6C-410F-90F0-5127CA8CD85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29A6BFEE-0259-417E-85B3-8B837C037C9E}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{B4765E52-EDFD-D741-BA6E-BE8DC5C53A18}"/>
   </bookViews>
@@ -118,80 +118,83 @@
 Dean's list, 2018-2019.</t>
   </si>
   <si>
+    <t>Data Analyst Intern | Israel Defense Forces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naya College </t>
+  </si>
+  <si>
+    <t>Advanced SQL Certification</t>
+  </si>
+  <si>
+    <t>Education and Professional Development</t>
+  </si>
+  <si>
+    <t>Herzliya, Israel</t>
+  </si>
+  <si>
+    <t>Beersheba Sheva, Israel</t>
+  </si>
+  <si>
+    <t>SQL, Tableau, R, Python, Excel.</t>
+  </si>
+  <si>
+    <t>http://eladozcohen.com/Projects.html</t>
+  </si>
+  <si>
+    <t>Honor</t>
+  </si>
+  <si>
+    <t>whatwhat</t>
+  </si>
+  <si>
+    <t>whenwhen</t>
+  </si>
+  <si>
+    <t>where</t>
+  </si>
+  <si>
+    <t>Projects1</t>
+  </si>
+  <si>
+    <t>Projects2</t>
+  </si>
+  <si>
+    <t>Projects3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Programmed an interactive web application that explores the behavior of various measurements of central tendencies.</t>
+  </si>
+  <si>
+    <t>Data Analysis: Data Exploration and insights extraction via SQL and Tableau.</t>
+  </si>
+  <si>
+    <t>Data Visualization: Collection of assorted ongoing data visualizations.</t>
+  </si>
+  <si>
+    <t>Delivered weekly tutorials on the theory and application of wide statistical topics.
+Inferential Statistics: t-tests, ANOVA, hypothesis testing, correlation analysis.
+Multivariate Regression: linear regression analysis, fitting and visualizing linear models in R programming language.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aggregated unstructured data from external sources to analyze the behavioral patterns of 5,000+ army personnel using hypothesis testing and machine learning techniques.  
+Automated repetitive pre processing tasks using R programming language, increasing operational efficiency by 50%.
+Communicated valuable insights to 100+ senior officers in conferences. </t>
+  </si>
+  <si>
+    <t>Obtained comprehensive and practical experience in both the core and advanced concepts of SQL.
+Acquired proficiency in, among other topics, the fundamental principles of SQL, DML, Advanced quiring techniques, window functions, and Transact SQL programming.</t>
+  </si>
+  <si>
     <t>GPA 90/100.
-Presented results of projects in conferences and meetings.</t>
-  </si>
-  <si>
-    <t>Data Analyst Intern | Israel Defense Forces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Naya College </t>
-  </si>
-  <si>
-    <t>Advanced SQL Certification</t>
-  </si>
-  <si>
-    <t>Education and Professional Development</t>
-  </si>
-  <si>
-    <t>Herzliya, Israel</t>
-  </si>
-  <si>
-    <t>Beersheba Sheva, Israel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aggregated unstructured data from multiple sources to analyze the behavioral patterns of 5,000+ army personnel using hypothesis testing and machine learning techniques.  
-Automated repetitive pre processing tasks using R programming language, increasing operational efficiency by 50%.
-Communicated valuable insights to 100+ senior officers in numerous conferences. </t>
-  </si>
-  <si>
-    <t>Inferential Statistics: t-tests, ANOVA, hypothesis testing, correlation analysis.
-Multivariate Regression: linear regression anaylsis, fitting and visualizing linear models in R programming language.</t>
-  </si>
-  <si>
-    <t>Obtained comprehensive and practical experience in both the core and advanced concepts of SQL.
-Among other topics, honed me skills in the fundamental principles of SQL, DML, Advanced quiring techniques, window functions, and Transact SQL programming.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collected, managed, analyzed and visualized data from multiple experiments, totaling in more than 5-million data points.
-Fast-learned and applied advanced statistical modeling techniques such as to meet projects requirements.
-Transformed data analysis insights to innovative experimental procedures which increased productivity by 30%. </t>
-  </si>
-  <si>
-    <t>SQL, Tableau, R, Python, Excel.</t>
-  </si>
-  <si>
-    <t>http://eladozcohen.com/Projects.html</t>
-  </si>
-  <si>
-    <t>Honor</t>
-  </si>
-  <si>
-    <t>whatwhat</t>
-  </si>
-  <si>
-    <t>whenwhen</t>
-  </si>
-  <si>
-    <t>where</t>
-  </si>
-  <si>
-    <t>Projects1</t>
-  </si>
-  <si>
-    <t>Projects2</t>
-  </si>
-  <si>
-    <t>Projects3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Programmed an interactive web application that explores the behavior of various measurements of central tendencies.</t>
-  </si>
-  <si>
-    <t>Data Analysis: Data Exploration and insights extraction via SQL and Tableau.</t>
-  </si>
-  <si>
-    <t>Data Visualization: Collection of assorted ongoing data visualizations.</t>
+Presented results of projects in conferences and meetings.
+Mentored and directed students on the proper conduction of research.</t>
+  </si>
+  <si>
+    <t>Spearheaded and designed 15+ experiments totaling in 600+ subjects, and collected, managed, analyzed, and visualized over 5 million data points as part of end-to-end research projects. 
+Fast-learned and applied advanced statistical modeling techniques to meet project requirements.
+Transformed data analysis insights to experimental procedures, increasing productivity by 30%.
+Collaborated with a large research team to share data and supported research efforts, resulting in publication in a scientific journal.</t>
   </si>
 </sst>
 </file>
@@ -618,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB36160-04F7-C447-97DB-5421DBBDF950}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -667,42 +670,42 @@
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>38</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
@@ -711,14 +714,14 @@
     <row r="4" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -726,14 +729,14 @@
     <row r="5" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -741,14 +744,14 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -759,7 +762,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>15</v>
@@ -771,7 +774,7 @@
         <v>25</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -791,15 +794,15 @@
         <v>12</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
     </row>
-    <row r="9" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="6" t="s">
         <v>6</v>
@@ -817,7 +820,7 @@
         <v>7</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -825,22 +828,22 @@
     <row r="10" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="6">
         <v>2022</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -848,7 +851,7 @@
     <row r="11" spans="1:9" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>16</v>
@@ -863,7 +866,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -871,7 +874,7 @@
     <row r="12" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>17</v>

--- a/static/CV_Builder/template.xlsx
+++ b/static/CV_Builder/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/503a47e0f8a7e499/Job_Hunt/mywebsite/eladozcohen.com/static/CV_Builder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="205" documentId="13_ncr:1_{B5AE0704-2B6C-410F-90F0-5127CA8CD85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{29A6BFEE-0259-417E-85B3-8B837C037C9E}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="13_ncr:1_{B5AE0704-2B6C-410F-90F0-5127CA8CD85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3BFBBDD8-61BF-4372-8814-D75F8A91E906}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{B4765E52-EDFD-D741-BA6E-BE8DC5C53A18}"/>
   </bookViews>
@@ -621,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB36160-04F7-C447-97DB-5421DBBDF950}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -857,7 +857,7 @@
         <v>16</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>19</v>
